--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_7_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_7_sine_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[49.92062626659663, 50.15303520494584]</t>
+          <t>[49.92080998514051, 50.15285148640196]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.934010926314905, 50.09629286320551]</t>
+          <t>[49.933974043296026, 50.09632974622439]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[49.87575134259153, 50.129665850942644]</t>
+          <t>[49.87814390862527, 50.1272732849089]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.99747948751299, 50.15348737689152]</t>
+          <t>[49.997376600394155, 50.153590264010354]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[49.82992585886439, 50.1591657063608]</t>
+          <t>[49.827221175097996, 50.1618703901272]</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.93479046362094, 50.12413864536663]</t>
+          <t>[49.93477441921237, 50.1241546897752]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[49.95062368080863, 50.24839670148246]</t>
+          <t>[49.94785563942253, 50.25116474286857]</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.95252737402964, 50.114668505782106]</t>
+          <t>[49.95245053225074, 50.11474534756101]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[49.82919688671213, 50.10103450784924]</t>
+          <t>[49.82482253319466, 50.10540886136671]</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.99517561767728, 50.139973462984976]</t>
+          <t>[49.99531956312543, 50.13982951753683]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[49.902240218494796, 50.201592130510306]</t>
+          <t>[49.90930403224561, 50.194528316759495]</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[50.01169744505757, 50.16241342257245]</t>
+          <t>[50.011773336001205, 50.162337531628815]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[49.84472917460433, 50.19298042663595]</t>
+          <t>[49.849953881211285, 50.187755720028996]</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.93155929930348, 50.11215679767535]</t>
+          <t>[49.93129528888244, 50.11242080809639]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[49.85475296268253, 50.17537459229073]</t>
+          <t>[49.856932177566, 50.17319537740726]</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.95047520758425, 50.12042460149691]</t>
+          <t>[49.95041495549029, 50.12048485359087]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[49.79296334302752, 50.08491133700278]</t>
+          <t>[49.79315278222805, 50.084721897802254]</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[49.91682560607677, 50.084749213343684]</t>
+          <t>[49.91676981906598, 50.08480500035447]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[49.896487023034005, 50.22222251012884]</t>
+          <t>[49.898985856636656, 50.219723676526186]</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[50.0127182225212, 50.20034083543882]</t>
+          <t>[50.01243949001261, 50.20061956794741]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[49.94607101704694, 50.142276418828594]</t>
+          <t>[49.94708497079242, 50.141262465083116]</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[49.96555820017753, 50.10481244360914]</t>
+          <t>[49.965739263474546, 50.10463138031213]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[49.88506956241018, 50.18653709540487]</t>
+          <t>[49.88521646297608, 50.18639019483897]</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[49.87293719569839, 50.04532799400396]</t>
+          <t>[49.87308503388744, 50.04518015581491]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[49.855758327674344, 50.17883821894804]</t>
+          <t>[49.858860136961745, 50.17573640966064]</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[49.98741458589163, 50.154868101578174]</t>
+          <t>[49.987372999723846, 50.154909687745956]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[49.77446694371337, 50.087622393661725]</t>
+          <t>[49.769694449018004, 50.09239488835709]</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[49.948670555124195, 50.11749227338781]</t>
+          <t>[49.94871041264968, 50.117452415862324]</t>
         </is>
       </c>
       <c r="V15" t="n">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[49.82014813825878, 50.10798656440581]</t>
+          <t>[49.81847867059839, 50.109656032066205]</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[49.917354562684665, 50.091276729670966]</t>
+          <t>[49.9173694429299, 50.09126184942573]</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[49.86804281392758, 50.13703114312204]</t>
+          <t>[49.86831495434458, 50.13675900270504]</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[49.87806931375942, 50.048275553489766]</t>
+          <t>[49.87802088701233, 50.04832398023685]</t>
         </is>
       </c>
       <c r="V17" t="n">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[49.82262246348565, 50.13655124347819]</t>
+          <t>[49.82163330362212, 50.13754040334172]</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[49.923234208953794, 50.09403187815517]</t>
+          <t>[49.92319987416617, 50.09406621294279]</t>
         </is>
       </c>
       <c r="V18" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_7_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_7_sine_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[49.92080998514051, 50.15285148640196]</t>
+          <t>[49.92081781404283, 50.15284365749964]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.933974043296026, 50.09632974622439]</t>
+          <t>[49.93407120895235, 50.09623258056806]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[49.87814390862527, 50.1272732849089]</t>
+          <t>[49.88175335038372, 50.12366384315045]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.997376600394155, 50.153590264010354]</t>
+          <t>[49.997398394184515, 50.153568470219994]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[49.827221175097996, 50.1618703901272]</t>
+          <t>[49.82729706832415, 50.161794496901045]</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.93477441921237, 50.1241546897752]</t>
+          <t>[49.93473133612819, 50.12419777285938]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[49.94785563942253, 50.25116474286857]</t>
+          <t>[49.95141769365719, 50.247602688633904]</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.95245053225074, 50.11474534756101]</t>
+          <t>[49.95261566346861, 50.114580216343136]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[49.82482253319466, 50.10540886136671]</t>
+          <t>[49.831225771841474, 50.0990056227199]</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.99531956312543, 50.13982951753683]</t>
+          <t>[49.995186286138384, 50.139962794523875]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[49.90930403224561, 50.194528316759495]</t>
+          <t>[49.901507742047365, 50.20232460695774]</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[50.011773336001205, 50.162337531628815]</t>
+          <t>[50.01173678196752, 50.1623740856625]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[49.849953881211285, 50.187755720028996]</t>
+          <t>[49.84438151518572, 50.193328086054564]</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.93129528888244, 50.11242080809639]</t>
+          <t>[49.93156188218366, 50.11215421479517]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[49.856932177566, 50.17319537740726]</t>
+          <t>[49.856385242327256, 50.173742312646006]</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.95041495549029, 50.12048485359087]</t>
+          <t>[49.95034215313272, 50.12055765594843]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[49.79315278222805, 50.084721897802254]</t>
+          <t>[49.7982084698894, 50.0796662101409]</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[49.91676981906598, 50.08480500035447]</t>
+          <t>[49.916810463613544, 50.08476435580691]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[49.898985856636656, 50.219723676526186]</t>
+          <t>[49.898054279226656, 50.22065525393619]</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[50.01243949001261, 50.20061956794741]</t>
+          <t>[50.01262558889632, 50.200433469063704]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[49.94708497079242, 50.141262465083116]</t>
+          <t>[49.9457908029763, 50.142556632899236]</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[49.965739263474546, 50.10463138031213]</t>
+          <t>[49.965651123663925, 50.10471952012275]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[49.88521646297608, 50.18639019483897]</t>
+          <t>[49.8842751264595, 50.187331531355554]</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[49.87308503388744, 50.04518015581491]</t>
+          <t>[49.87296347209205, 50.0453017176103]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[49.858860136961745, 50.17573640966064]</t>
+          <t>[49.85322859381059, 50.18136795281179]</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[49.987372999723846, 50.154909687745956]</t>
+          <t>[49.9874257980481, 50.1548568894217]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[49.769694449018004, 50.09239488835709]</t>
+          <t>[49.769790535114424, 50.09229880226067]</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[49.94871041264968, 50.117452415862324]</t>
+          <t>[49.94876808578305, 50.117394742728955]</t>
         </is>
       </c>
       <c r="V15" t="n">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[49.81847867059839, 50.109656032066205]</t>
+          <t>[49.82054099950924, 50.10759370315535]</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[49.9173694429299, 50.09126184942573]</t>
+          <t>[49.91739892889771, 50.09123236345792]</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[49.86831495434458, 50.13675900270504]</t>
+          <t>[49.87155435512928, 50.13351960192034]</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[49.87802088701233, 50.04832398023685]</t>
+          <t>[49.87807617357681, 50.04826869367238]</t>
         </is>
       </c>
       <c r="V17" t="n">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[49.82163330362212, 50.13754040334172]</t>
+          <t>[49.82141313508155, 50.13776057188229]</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[49.92319987416617, 50.09406621294279]</t>
+          <t>[49.923267114276605, 50.09399897283236]</t>
         </is>
       </c>
       <c r="V18" t="n">
